--- a/pub/Operations/ServiceLevelAgreements/2012.xlsx
+++ b/pub/Operations/ServiceLevelAgreements/2012.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="0" windowWidth="25600" windowHeight="19360" tabRatio="500"/>
+    <workbookView xWindow="2000" yWindow="0" windowWidth="25600" windowHeight="19360" tabRatio="654"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="57">
   <si>
     <t>Resource/Name</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Apache Server</t>
   </si>
   <si>
-    <t>GRATIA-OSG-DAILY</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
@@ -196,6 +193,15 @@
   </si>
   <si>
     <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
@@ -244,8 +250,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -268,17 +276,19 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -620,7 +630,7 @@
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,78 +638,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3">
-        <f>Aug!C2</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <f>Sep!C2</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
-        <f>Oct!C2</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -746,8 +721,16 @@
         <f>Oct!C3</f>
         <v>0.98660000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="3">
+        <f>Nov!C3</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="N3" s="3">
+        <f>Dec!C3</f>
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -794,8 +777,16 @@
         <f>Oct!C4</f>
         <v>0.98870000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="3">
+        <f>Nov!C4</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="N4" s="3">
+        <f>Dec!C4</f>
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -842,8 +833,16 @@
         <f>Oct!C5</f>
         <v>0.98899999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="3">
+        <f>Nov!C5</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="N5" s="3">
+        <f>Dec!C5</f>
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -890,8 +889,16 @@
         <f>Oct!C6</f>
         <v>0.99380000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="3">
+        <f>Nov!C6</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <f>Dec!C6</f>
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -938,8 +945,16 @@
         <f>Oct!C7</f>
         <v>0.99929999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="3">
+        <f>Nov!C7</f>
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="N7" s="3">
+        <f>Dec!C7</f>
+        <v>0.98060000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -986,8 +1001,16 @@
         <f>Oct!C8</f>
         <v>0.99909999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="3">
+        <f>Nov!C8</f>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="N8" s="3">
+        <f>Dec!C8</f>
+        <v>0.98089999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1034,8 +1057,16 @@
         <f>Oct!C9</f>
         <v>0.99770000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="3">
+        <f>Nov!C9</f>
+        <v>0.996</v>
+      </c>
+      <c r="N9" s="3">
+        <f>Dec!C9</f>
+        <v>0.97989999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1082,8 +1113,16 @@
         <f>Oct!C10</f>
         <v>0.99880000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="3">
+        <f>Nov!C10</f>
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="N10" s="3">
+        <f>Dec!C10</f>
+        <v>0.98070000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1130,8 +1169,16 @@
         <f>Oct!C11</f>
         <v>0.99860000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="3">
+        <f>Nov!C11</f>
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="N11" s="3">
+        <f>Dec!C11</f>
+        <v>0.99719999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1178,8 +1225,16 @@
         <f>Oct!C12</f>
         <v>0.99450000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="3">
+        <f>Nov!C12</f>
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="N12" s="3">
+        <f>Dec!C12</f>
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1226,8 +1281,16 @@
         <f>Oct!C13</f>
         <v>0.99680000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="3">
+        <f>Nov!C13</f>
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="N13" s="3">
+        <f>Dec!C13</f>
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1274,8 +1337,16 @@
         <f>Oct!C14</f>
         <v>0.99360000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="3">
+        <f>Nov!C14</f>
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="N14" s="3">
+        <f>Dec!C14</f>
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1322,8 +1393,16 @@
         <f>Oct!C15</f>
         <v>0.99450000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="3">
+        <f>Nov!C15</f>
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="N15" s="3">
+        <f>Dec!C15</f>
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1370,8 +1449,16 @@
         <f>Oct!C16</f>
         <v>0.99680000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="3">
+        <f>Nov!C16</f>
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="N16" s="3">
+        <f>Dec!C16</f>
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1418,8 +1505,16 @@
         <f>Oct!C17</f>
         <v>0.99750000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="3">
+        <f>Nov!C17</f>
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="N17" s="3">
+        <f>Dec!C17</f>
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1466,8 +1561,16 @@
         <f>Oct!C18</f>
         <v>0.99490000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="3">
+        <f>Nov!C18</f>
+        <v>0.995</v>
+      </c>
+      <c r="N18" s="3">
+        <f>Dec!C18</f>
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1475,13 +1578,13 @@
         <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3">
         <f>Apr!C19</f>
@@ -1511,8 +1614,16 @@
         <f>Oct!C19</f>
         <v>0.99809999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="3">
+        <f>Nov!C19</f>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="N19" s="3">
+        <f>Dec!C19</f>
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1559,8 +1670,16 @@
         <f>Oct!C20</f>
         <v>0.99929999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="3">
+        <f>Nov!C20</f>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="N20" s="3">
+        <f>Dec!C20</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1607,8 +1726,16 @@
         <f>Oct!C21</f>
         <v>0.99839999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="3">
+        <f>Nov!C21</f>
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="N21" s="3">
+        <f>Dec!C21</f>
+        <v>0.97870000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1655,8 +1782,16 @@
         <f>Oct!C22</f>
         <v>0.99539999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="3">
+        <f>Nov!C22</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="N22" s="3">
+        <f>Dec!C22</f>
+        <v>0.98850000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1664,10 +1799,10 @@
         <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3">
         <f>Mar!C23</f>
@@ -1701,8 +1836,16 @@
         <f>Oct!C23</f>
         <v>0.99629999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="3">
+        <f>Nov!C23</f>
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="N23" s="3">
+        <f>Dec!C23</f>
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1710,13 +1853,13 @@
         <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3">
         <f>Apr!C24</f>
@@ -1746,8 +1889,16 @@
         <f>Oct!C24</f>
         <v>0.99819999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="3">
+        <f>Nov!C24</f>
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="N24" s="3">
+        <f>Dec!C24</f>
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1794,45 +1945,37 @@
         <f>Oct!C25</f>
         <v>0.99250000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M25" s="3">
+        <f>Nov!C25</f>
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="N25" s="3">
+        <f>Dec!C25</f>
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="E29" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="3">
-        <f>AVERAGE(I2:K2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="N29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1855,8 +1998,16 @@
         <f t="shared" ref="K31:K52" si="2">AVERAGE(I3:K3)</f>
         <v>0.99283333333333346</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="N31" s="3">
+        <f t="shared" ref="N31:N52" si="3">AVERAGE(L3:N3)</f>
+        <v>0.99506666666666665</v>
+      </c>
+      <c r="P31" s="1">
+        <f>AVERAGE(C3:N3)</f>
+        <v>0.98996666666666655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1879,8 +2030,16 @@
         <f t="shared" si="2"/>
         <v>0.99270000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="N32" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99569999999999992</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" ref="P32:P53" si="4">AVERAGE(C4:N4)</f>
+        <v>0.99667499999999987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1903,8 +2062,16 @@
         <f t="shared" si="2"/>
         <v>0.99250000000000005</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="N33" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99573333333333336</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99493333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1927,8 +2094,16 @@
         <f t="shared" si="2"/>
         <v>0.98083333333333333</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="N34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99406666666666654</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99142500000000011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1951,8 +2126,16 @@
         <f t="shared" si="2"/>
         <v>0.99353333333333327</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="N35" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99615833333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1975,8 +2158,16 @@
         <f t="shared" si="2"/>
         <v>0.99309999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="N36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99597499999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1999,8 +2190,16 @@
         <f t="shared" si="2"/>
         <v>0.99303333333333332</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="N37" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99120000000000008</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99593333333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2023,8 +2222,16 @@
         <f t="shared" si="2"/>
         <v>0.99346666666666661</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="N38" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9917666666666668</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9961833333333332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2047,8 +2254,16 @@
         <f t="shared" si="2"/>
         <v>0.99319999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="N39" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99624166666666658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2071,8 +2286,16 @@
         <f t="shared" si="2"/>
         <v>0.99319999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="N40" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99273333333333336</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99612500000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2095,8 +2318,16 @@
         <f t="shared" si="2"/>
         <v>0.9916666666666667</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="N41" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99693333333333334</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99680833333333341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2119,8 +2350,16 @@
         <f t="shared" si="2"/>
         <v>0.97526666666666662</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="N42" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9952333333333333</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="4"/>
+        <v>0.991425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2143,8 +2382,16 @@
         <f t="shared" si="2"/>
         <v>0.99336666666666673</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="N43" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99693333333333334</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99716666666666676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -2167,8 +2414,16 @@
         <f t="shared" si="2"/>
         <v>0.99303333333333332</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="N44" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9972333333333333</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99714166666666681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2446,16 @@
         <f t="shared" si="2"/>
         <v>0.99149999999999994</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99626666666666674</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99628333333333341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -2215,8 +2478,16 @@
         <f t="shared" si="2"/>
         <v>0.99273333333333336</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="N46" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99616666666666676</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99686666666666657</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -2224,7 +2495,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -2238,8 +2509,16 @@
         <f t="shared" si="2"/>
         <v>0.99116666666666664</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="N47" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99903333333333333</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9840888888888889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -2262,8 +2541,16 @@
         <f t="shared" si="2"/>
         <v>0.99309999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="N48" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99286666666666668</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99606666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -2286,8 +2573,16 @@
         <f t="shared" si="2"/>
         <v>0.99313333333333331</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="N49" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99581666666666668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2310,8 +2605,16 @@
         <f t="shared" si="2"/>
         <v>0.98606666666666654</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="N50" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99263333333333337</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98557499999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2334,8 +2637,16 @@
         <f t="shared" si="2"/>
         <v>0.99239999999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="N51" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99593333333333334</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99607999999999985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2343,7 +2654,7 @@
         <v>39</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -2357,8 +2668,16 @@
         <f t="shared" si="2"/>
         <v>0.99230000000000007</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="N52" s="3">
+        <f t="shared" si="3"/>
+        <v>0.98669999999999991</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98759999999999992</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -2381,8 +2700,16 @@
         <f>AVERAGE(I25:K25)</f>
         <v>0.98696666666666666</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="N53" s="3">
+        <f>AVERAGE(L25:N25)</f>
+        <v>0.99253333333333327</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99440833333333323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -2407,7 +2734,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2430,20 +2757,6 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2784,7 +3097,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2809,20 +3122,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
@@ -3157,12 +3456,357 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.99329999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.99429999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.99380000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99570000000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3174,12 +3818,357 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98060000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.98089999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.98070000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.99719999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.97870000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.98850000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.9667</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5258,7 +6247,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5281,20 +6270,6 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5634,7 +6609,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5659,20 +6634,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
